--- a/data_month/zb/工业/工业分大类行业出口交货值(2003-2011)/纺织服装、鞋、帽制造业.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2003-2011)/纺织服装、鞋、帽制造业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1050 +454,1220 @@
           <t>纺织服装、鞋、帽制造业出口交货值_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>纺织服装、鞋、帽制造业出口交货值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.49</v>
+        <v>13.04</v>
       </c>
       <c r="C2" t="n">
-        <v>264.51</v>
+        <v>182.24</v>
       </c>
       <c r="D2" t="n">
-        <v>2541.33</v>
+        <v>392.92</v>
       </c>
       <c r="E2" t="n">
-        <v>17.38</v>
+        <v>17.66</v>
+      </c>
+      <c r="F2" t="n">
+        <v>392.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.75</v>
+        <v>20.97</v>
       </c>
       <c r="C3" t="n">
-        <v>256.23</v>
+        <v>226.76</v>
       </c>
       <c r="D3" t="n">
-        <v>2819.22</v>
+        <v>622.47</v>
       </c>
       <c r="E3" t="n">
-        <v>17.1</v>
+        <v>18.29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>229.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.31</v>
+        <v>14.52</v>
       </c>
       <c r="C4" t="n">
-        <v>295.35</v>
+        <v>230.33</v>
       </c>
       <c r="D4" t="n">
-        <v>3158.12</v>
+        <v>860.92</v>
       </c>
       <c r="E4" t="n">
-        <v>17.51</v>
+        <v>17.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>238.4499999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.04</v>
+        <v>17.32</v>
       </c>
       <c r="C5" t="n">
-        <v>182.24</v>
+        <v>246.99</v>
       </c>
       <c r="D5" t="n">
-        <v>392.92</v>
+        <v>1120.66</v>
       </c>
       <c r="E5" t="n">
-        <v>17.66</v>
+        <v>18.45</v>
+      </c>
+      <c r="F5" t="n">
+        <v>259.7400000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.97</v>
+        <v>24.31</v>
       </c>
       <c r="C6" t="n">
-        <v>226.76</v>
+        <v>290.7</v>
       </c>
       <c r="D6" t="n">
-        <v>622.47</v>
+        <v>1420.76</v>
       </c>
       <c r="E6" t="n">
-        <v>18.29</v>
+        <v>19.37</v>
+      </c>
+      <c r="F6" t="n">
+        <v>300.0999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.52</v>
+        <v>16.16</v>
       </c>
       <c r="C7" t="n">
-        <v>230.33</v>
+        <v>270.67</v>
       </c>
       <c r="D7" t="n">
-        <v>860.92</v>
+        <v>1694.47</v>
       </c>
       <c r="E7" t="n">
-        <v>17.8</v>
+        <v>19.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>273.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.32</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>246.99</v>
+        <v>279.07</v>
       </c>
       <c r="D8" t="n">
-        <v>1120.66</v>
+        <v>1979.5</v>
       </c>
       <c r="E8" t="n">
-        <v>18.45</v>
+        <v>17.64</v>
+      </c>
+      <c r="F8" t="n">
+        <v>285.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.31</v>
+        <v>18.56</v>
       </c>
       <c r="C9" t="n">
-        <v>290.7</v>
+        <v>287.13</v>
       </c>
       <c r="D9" t="n">
-        <v>1420.76</v>
+        <v>2275.34</v>
       </c>
       <c r="E9" t="n">
-        <v>19.37</v>
+        <v>18.45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>295.8400000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.16</v>
+        <v>12.49</v>
       </c>
       <c r="C10" t="n">
-        <v>270.67</v>
+        <v>264.51</v>
       </c>
       <c r="D10" t="n">
-        <v>1694.47</v>
+        <v>2541.33</v>
       </c>
       <c r="E10" t="n">
-        <v>19.19</v>
+        <v>17.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>265.9899999999998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>10.75</v>
       </c>
       <c r="C11" t="n">
-        <v>279.07</v>
+        <v>256.23</v>
       </c>
       <c r="D11" t="n">
-        <v>1979.5</v>
+        <v>2819.22</v>
       </c>
       <c r="E11" t="n">
-        <v>17.64</v>
+        <v>17.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>277.8899999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.56</v>
+        <v>11.31</v>
       </c>
       <c r="C12" t="n">
-        <v>287.13</v>
+        <v>295.35</v>
       </c>
       <c r="D12" t="n">
-        <v>2275.34</v>
+        <v>3158.12</v>
       </c>
       <c r="E12" t="n">
-        <v>18.45</v>
+        <v>17.51</v>
+      </c>
+      <c r="F12" t="n">
+        <v>338.9000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="C13" t="n">
-        <v>279.4</v>
+        <v>195.2</v>
       </c>
       <c r="D13" t="n">
-        <v>2711.5</v>
+        <v>426.2</v>
       </c>
       <c r="E13" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>426.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>268.5</v>
+        <v>246.2</v>
       </c>
       <c r="D14" t="n">
-        <v>2984.5</v>
+        <v>687.3</v>
       </c>
       <c r="E14" t="n">
-        <v>5.7</v>
+        <v>9.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>261.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>287.9</v>
+        <v>242.3</v>
       </c>
       <c r="D15" t="n">
-        <v>3275.6</v>
+        <v>934</v>
       </c>
       <c r="E15" t="n">
-        <v>4.4</v>
+        <v>7.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>246.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.1</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="n">
-        <v>195.2</v>
+        <v>262.7</v>
       </c>
       <c r="D16" t="n">
-        <v>426.2</v>
+        <v>1204.4</v>
       </c>
       <c r="E16" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>270.4000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>246.2</v>
+        <v>301.5</v>
       </c>
       <c r="D17" t="n">
-        <v>687.3</v>
+        <v>1512.6</v>
       </c>
       <c r="E17" t="n">
-        <v>9.5</v>
+        <v>5.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>308.1999999999998</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="n">
-        <v>242.3</v>
+        <v>286.7</v>
       </c>
       <c r="D18" t="n">
-        <v>934</v>
+        <v>1799.9</v>
       </c>
       <c r="E18" t="n">
-        <v>7.3</v>
+        <v>5.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>287.3000000000002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="C19" t="n">
-        <v>262.7</v>
+        <v>292.7</v>
       </c>
       <c r="D19" t="n">
-        <v>1204.4</v>
+        <v>2101</v>
       </c>
       <c r="E19" t="n">
-        <v>6.4</v>
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>301.0999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="C20" t="n">
-        <v>301.5</v>
+        <v>315.9</v>
       </c>
       <c r="D20" t="n">
-        <v>1512.6</v>
+        <v>2421.8</v>
       </c>
       <c r="E20" t="n">
         <v>5.8</v>
       </c>
+      <c r="F20" t="n">
+        <v>320.8000000000002</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="C21" t="n">
-        <v>286.7</v>
+        <v>279.4</v>
       </c>
       <c r="D21" t="n">
-        <v>1799.9</v>
+        <v>2711.5</v>
       </c>
       <c r="E21" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>289.6999999999998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="C22" t="n">
-        <v>292.7</v>
+        <v>268.5</v>
       </c>
       <c r="D22" t="n">
-        <v>2101</v>
+        <v>2984.5</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>5.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.5</v>
+        <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>315.9</v>
+        <v>287.9</v>
       </c>
       <c r="D23" t="n">
-        <v>2421.8</v>
+        <v>3275.6</v>
       </c>
       <c r="E23" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>291.0999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.87</v>
+        <v>7.81</v>
       </c>
       <c r="C24" t="n">
-        <v>289.46</v>
+        <v>209.62</v>
       </c>
       <c r="D24" t="n">
-        <v>2746.04</v>
+        <v>428.87</v>
       </c>
       <c r="E24" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
+      </c>
+      <c r="F24" t="n">
+        <v>428.87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.48</v>
+        <v>-2.86</v>
       </c>
       <c r="C25" t="n">
-        <v>289.4</v>
+        <v>237.95</v>
       </c>
       <c r="D25" t="n">
-        <v>3044.55</v>
+        <v>675.61</v>
       </c>
       <c r="E25" t="n">
-        <v>2.49</v>
+        <v>-0.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>246.74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.69</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>316.1</v>
+        <v>241.3</v>
       </c>
       <c r="D26" t="n">
-        <v>3375.23</v>
+        <v>921.0599999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>2.77</v>
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>245.4499999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.81</v>
+        <v>2.72</v>
       </c>
       <c r="C27" t="n">
-        <v>209.62</v>
+        <v>266.18</v>
       </c>
       <c r="D27" t="n">
-        <v>428.87</v>
+        <v>1198.7</v>
       </c>
       <c r="E27" t="n">
-        <v>1.65</v>
+        <v>0.62</v>
+      </c>
+      <c r="F27" t="n">
+        <v>277.6400000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-2.86</v>
+        <v>-0.64</v>
       </c>
       <c r="C28" t="n">
-        <v>237.95</v>
+        <v>300.36</v>
       </c>
       <c r="D28" t="n">
-        <v>675.61</v>
+        <v>1498.99</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5</v>
+        <v>0.04</v>
+      </c>
+      <c r="F28" t="n">
+        <v>300.29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.15</v>
       </c>
       <c r="C29" t="n">
-        <v>241.3</v>
+        <v>290.57</v>
       </c>
       <c r="D29" t="n">
-        <v>921.0599999999999</v>
+        <v>1798.13</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.46</v>
+      </c>
+      <c r="F29" t="n">
+        <v>299.1400000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.72</v>
+        <v>4.47</v>
       </c>
       <c r="C30" t="n">
-        <v>266.18</v>
+        <v>303.53</v>
       </c>
       <c r="D30" t="n">
-        <v>1198.7</v>
+        <v>2117.56</v>
       </c>
       <c r="E30" t="n">
-        <v>0.62</v>
+        <v>1.6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>319.4299999999998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.64</v>
+        <v>1.95</v>
       </c>
       <c r="C31" t="n">
-        <v>300.36</v>
+        <v>320.96</v>
       </c>
       <c r="D31" t="n">
-        <v>1498.99</v>
+        <v>2452.64</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04</v>
+        <v>2.01</v>
+      </c>
+      <c r="F31" t="n">
+        <v>335.0799999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.15</v>
+        <v>2.87</v>
       </c>
       <c r="C32" t="n">
-        <v>290.57</v>
+        <v>289.46</v>
       </c>
       <c r="D32" t="n">
-        <v>1798.13</v>
+        <v>2746.04</v>
       </c>
       <c r="E32" t="n">
-        <v>0.46</v>
+        <v>1.91</v>
+      </c>
+      <c r="F32" t="n">
+        <v>293.4000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.47</v>
+        <v>5.48</v>
       </c>
       <c r="C33" t="n">
-        <v>303.53</v>
+        <v>289.4</v>
       </c>
       <c r="D33" t="n">
-        <v>2117.56</v>
+        <v>3044.55</v>
       </c>
       <c r="E33" t="n">
-        <v>1.6</v>
+        <v>2.49</v>
+      </c>
+      <c r="F33" t="n">
+        <v>298.5100000000002</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.95</v>
+        <v>7.69</v>
       </c>
       <c r="C34" t="n">
-        <v>320.96</v>
+        <v>316.1</v>
       </c>
       <c r="D34" t="n">
-        <v>2452.64</v>
+        <v>3375.23</v>
       </c>
       <c r="E34" t="n">
-        <v>2.01</v>
+        <v>2.77</v>
+      </c>
+      <c r="F34" t="n">
+        <v>330.6799999999998</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.39</v>
+        <v>2.33</v>
       </c>
       <c r="C35" t="n">
-        <v>333.38</v>
+        <v>216.63</v>
       </c>
       <c r="D35" t="n">
-        <v>3003.49</v>
+        <v>466.71</v>
       </c>
       <c r="E35" t="n">
-        <v>11.32</v>
+        <v>8.26</v>
+      </c>
+      <c r="F35" t="n">
+        <v>466.71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.32</v>
+        <v>12.44</v>
       </c>
       <c r="C36" t="n">
-        <v>334.21</v>
+        <v>263.89</v>
       </c>
       <c r="D36" t="n">
-        <v>3343.86</v>
+        <v>732.95</v>
       </c>
       <c r="E36" t="n">
-        <v>12.47</v>
+        <v>9.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>266.2400000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.92</v>
+        <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>357.91</v>
+        <v>261.43</v>
       </c>
       <c r="D37" t="n">
-        <v>3698.35</v>
+        <v>994.98</v>
       </c>
       <c r="E37" t="n">
-        <v>12.32</v>
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F37" t="n">
+        <v>262.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.33</v>
+        <v>11.26</v>
       </c>
       <c r="C38" t="n">
-        <v>216.63</v>
+        <v>288.96</v>
       </c>
       <c r="D38" t="n">
-        <v>466.71</v>
+        <v>1292.94</v>
       </c>
       <c r="E38" t="n">
-        <v>8.26</v>
+        <v>9.56</v>
+      </c>
+      <c r="F38" t="n">
+        <v>297.96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12.44</v>
+        <v>11.86</v>
       </c>
       <c r="C39" t="n">
-        <v>263.89</v>
+        <v>326.86</v>
       </c>
       <c r="D39" t="n">
-        <v>732.95</v>
+        <v>1624.34</v>
       </c>
       <c r="E39" t="n">
-        <v>9.84</v>
+        <v>10.14</v>
+      </c>
+      <c r="F39" t="n">
+        <v>331.3999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.41</v>
+        <v>11.95</v>
       </c>
       <c r="C40" t="n">
-        <v>261.43</v>
+        <v>321.53</v>
       </c>
       <c r="D40" t="n">
-        <v>994.98</v>
+        <v>1949.43</v>
       </c>
       <c r="E40" t="n">
-        <v>9.359999999999999</v>
+        <v>10.31</v>
+      </c>
+      <c r="F40" t="n">
+        <v>325.0900000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11.26</v>
+        <v>14.37</v>
       </c>
       <c r="C41" t="n">
-        <v>288.96</v>
+        <v>337.81</v>
       </c>
       <c r="D41" t="n">
-        <v>1292.94</v>
+        <v>2296.2</v>
       </c>
       <c r="E41" t="n">
-        <v>9.56</v>
+        <v>10.94</v>
+      </c>
+      <c r="F41" t="n">
+        <v>346.7699999999998</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11.86</v>
+        <v>13.28</v>
       </c>
       <c r="C42" t="n">
-        <v>326.86</v>
+        <v>357.75</v>
       </c>
       <c r="D42" t="n">
-        <v>1624.34</v>
+        <v>2669.59</v>
       </c>
       <c r="E42" t="n">
-        <v>10.14</v>
+        <v>11.1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>373.3900000000003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>11.95</v>
+        <v>15.39</v>
       </c>
       <c r="C43" t="n">
-        <v>321.53</v>
+        <v>333.38</v>
       </c>
       <c r="D43" t="n">
-        <v>1949.43</v>
+        <v>3003.49</v>
       </c>
       <c r="E43" t="n">
-        <v>10.31</v>
+        <v>11.32</v>
+      </c>
+      <c r="F43" t="n">
+        <v>333.8999999999996</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.37</v>
+        <v>19.32</v>
       </c>
       <c r="C44" t="n">
-        <v>337.81</v>
+        <v>334.21</v>
       </c>
       <c r="D44" t="n">
-        <v>2296.2</v>
+        <v>3343.86</v>
       </c>
       <c r="E44" t="n">
-        <v>10.94</v>
+        <v>12.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>340.3700000000003</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13.28</v>
+        <v>15.92</v>
       </c>
       <c r="C45" t="n">
-        <v>357.75</v>
+        <v>357.91</v>
       </c>
       <c r="D45" t="n">
-        <v>2669.59</v>
+        <v>3698.35</v>
       </c>
       <c r="E45" t="n">
-        <v>11.1</v>
+        <v>12.32</v>
+      </c>
+      <c r="F45" t="n">
+        <v>354.4899999999998</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13.89</v>
+        <v>13.71</v>
       </c>
       <c r="C46" t="n">
-        <v>307.26</v>
+        <v>200.29</v>
       </c>
       <c r="D46" t="n">
-        <v>2836.91</v>
+        <v>441.62</v>
       </c>
       <c r="E46" t="n">
-        <v>16.83</v>
+        <v>16.02</v>
+      </c>
+      <c r="F46" t="n">
+        <v>441.62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>12.83</v>
+        <v>15.51</v>
       </c>
       <c r="C47" t="n">
-        <v>301.71</v>
+        <v>249.89</v>
       </c>
       <c r="D47" t="n">
-        <v>3139.98</v>
+        <v>695.49</v>
       </c>
       <c r="E47" t="n">
-        <v>16.26</v>
+        <v>16.98</v>
+      </c>
+      <c r="F47" t="n">
+        <v>253.87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16.61</v>
+        <v>19.75</v>
       </c>
       <c r="C48" t="n">
-        <v>333.14</v>
+        <v>254.2</v>
       </c>
       <c r="D48" t="n">
-        <v>3480.03</v>
+        <v>947.88</v>
       </c>
       <c r="E48" t="n">
-        <v>16.6</v>
+        <v>17.3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>252.39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>13.71</v>
+        <v>17.32</v>
       </c>
       <c r="C49" t="n">
-        <v>200.29</v>
+        <v>277.19</v>
       </c>
       <c r="D49" t="n">
-        <v>441.62</v>
+        <v>1231.25</v>
       </c>
       <c r="E49" t="n">
-        <v>16.02</v>
+        <v>17.33</v>
+      </c>
+      <c r="F49" t="n">
+        <v>283.37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>15.51</v>
+        <v>19.83</v>
       </c>
       <c r="C50" t="n">
-        <v>249.89</v>
+        <v>322.12</v>
       </c>
       <c r="D50" t="n">
-        <v>695.49</v>
+        <v>1551.21</v>
       </c>
       <c r="E50" t="n">
-        <v>16.98</v>
+        <v>17.56</v>
+      </c>
+      <c r="F50" t="n">
+        <v>319.96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>19.75</v>
+        <v>17.36</v>
       </c>
       <c r="C51" t="n">
-        <v>254.2</v>
+        <v>304.93</v>
       </c>
       <c r="D51" t="n">
-        <v>947.88</v>
+        <v>1858.74</v>
       </c>
       <c r="E51" t="n">
-        <v>17.3</v>
+        <v>17.65</v>
+      </c>
+      <c r="F51" t="n">
+        <v>307.53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>17.32</v>
+        <v>19.54</v>
       </c>
       <c r="C52" t="n">
-        <v>277.19</v>
+        <v>327.12</v>
       </c>
       <c r="D52" t="n">
-        <v>1231.25</v>
+        <v>2191.9</v>
       </c>
       <c r="E52" t="n">
-        <v>17.33</v>
+        <v>17.99</v>
+      </c>
+      <c r="F52" t="n">
+        <v>333.1600000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>19.83</v>
+        <v>13.73</v>
       </c>
       <c r="C53" t="n">
-        <v>322.12</v>
+        <v>328.82</v>
       </c>
       <c r="D53" t="n">
-        <v>1551.21</v>
+        <v>2527.08</v>
       </c>
       <c r="E53" t="n">
-        <v>17.56</v>
+        <v>17.02</v>
+      </c>
+      <c r="F53" t="n">
+        <v>335.1799999999998</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>17.36</v>
+        <v>13.89</v>
       </c>
       <c r="C54" t="n">
-        <v>304.93</v>
+        <v>307.26</v>
       </c>
       <c r="D54" t="n">
-        <v>1858.74</v>
+        <v>2836.91</v>
       </c>
       <c r="E54" t="n">
-        <v>17.65</v>
+        <v>16.83</v>
+      </c>
+      <c r="F54" t="n">
+        <v>309.8299999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>19.54</v>
+        <v>12.83</v>
       </c>
       <c r="C55" t="n">
-        <v>327.12</v>
+        <v>301.71</v>
       </c>
       <c r="D55" t="n">
-        <v>2191.9</v>
+        <v>3139.98</v>
       </c>
       <c r="E55" t="n">
-        <v>17.99</v>
+        <v>16.26</v>
+      </c>
+      <c r="F55" t="n">
+        <v>303.0700000000002</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13.73</v>
+        <v>16.61</v>
       </c>
       <c r="C56" t="n">
-        <v>328.82</v>
+        <v>333.14</v>
       </c>
       <c r="D56" t="n">
-        <v>2527.08</v>
+        <v>3480.03</v>
       </c>
       <c r="E56" t="n">
-        <v>17.02</v>
+        <v>16.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>340.0500000000002</v>
       </c>
     </row>
   </sheetData>
